--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\隨意\申請資料\SOP\CV 改\Job Application\Lab\IoT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ECE5EA-2C06-41FC-8D50-30A82C49B216}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D84BCCC-0F3E-42CB-A0C0-FE94EED66737}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9AE1FB-5A0C-4E87-85F5-11B367FF5FB7}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -645,6 +645,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D84BCCC-0F3E-42CB-A0C0-FE94EED66737}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBB2181-0875-4E9D-86AF-F7B94F5550C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Attack Vector</t>
   </si>
@@ -116,7 +116,31 @@
     <t>20181010 - 0017</t>
   </si>
   <si>
-    <t>see sshserver</t>
+    <t>Network Scanning</t>
+  </si>
+  <si>
+    <t>UA Network</t>
+  </si>
+  <si>
+    <t>Zenmap</t>
+  </si>
+  <si>
+    <t>20181010 - 1527 -&gt; 18:33</t>
+  </si>
+  <si>
+    <t>see ScanResult\sshserver</t>
+  </si>
+  <si>
+    <t>see ScanResult\zenmap\ECEIOTNetwork.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Sniffing </t>
+  </si>
+  <si>
+    <t>wireshark</t>
+  </si>
+  <si>
+    <t>see ECEIoT</t>
   </si>
 </sst>
 </file>
@@ -468,16 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9AE1FB-5A0C-4E87-85F5-11B367FF5FB7}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" customWidth="1"/>
@@ -642,12 +666,47 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>20181010</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBB2181-0875-4E9D-86AF-F7B94F5550C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA50C5B-F8CE-4966-AB30-CEBCB06D4ACF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Attack Vector</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Network Scanning</t>
   </si>
   <si>
-    <t>UA Network</t>
-  </si>
-  <si>
     <t>Zenmap</t>
   </si>
   <si>
@@ -141,6 +138,18 @@
   </si>
   <si>
     <t>see ECEIoT</t>
+  </si>
+  <si>
+    <t>UA Network(150.135.222….)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20181012 - 1221 -&gt; </t>
+  </si>
+  <si>
+    <t>UA Network(150.135.223.1 -&gt; 150.135.223.254)</t>
+  </si>
+  <si>
+    <t>UA Network(150.135.220.1 -&gt; 150.135.220.254)</t>
   </si>
 </sst>
 </file>
@@ -176,8 +185,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -492,17 +504,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9AE1FB-5A0C-4E87-85F5-11B367FF5FB7}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" customWidth="1"/>
     <col min="6" max="6" width="36.4140625" bestFit="1" customWidth="1"/>
@@ -666,7 +678,7 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -677,16 +689,16 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -694,19 +706,53 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>20181010</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA50C5B-F8CE-4966-AB30-CEBCB06D4ACF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA199AE-9692-47BA-B65C-D335F7610DC8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Attack Vector</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>UA Network(150.135.220.1 -&gt; 150.135.220.254)</t>
+  </si>
+  <si>
+    <t>20181012 - 1221 -&gt; 1353</t>
+  </si>
+  <si>
+    <t>see ScanResult\zenmap\ECEIOTNetwork1.xml</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +523,7 @@
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" customWidth="1"/>
-    <col min="6" max="6" width="36.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,7 +758,10 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA199AE-9692-47BA-B65C-D335F7610DC8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A9599D-D594-49B3-A37D-ECE8F9C23221}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>UA Network(150.135.222….)</t>
   </si>
   <si>
-    <t xml:space="preserve">20181012 - 1221 -&gt; </t>
-  </si>
-  <si>
     <t>UA Network(150.135.223.1 -&gt; 150.135.223.254)</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>see ScanResult\zenmap\ECEIOTNetwork1.xml</t>
+  </si>
+  <si>
+    <t>20181012 - 1221 -&gt; 1436</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -735,13 +735,13 @@
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -752,16 +752,16 @@
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
       <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
         <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A9599D-D594-49B3-A37D-ECE8F9C23221}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274D90B-EDD4-4675-AA93-2A4C8D2C0087}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Attack Vector</t>
   </si>
@@ -128,9 +128,6 @@
     <t>see ScanResult\sshserver</t>
   </si>
   <si>
-    <t>see ScanResult\zenmap\ECEIOTNetwork.xml</t>
-  </si>
-  <si>
     <t xml:space="preserve">Network Sniffing </t>
   </si>
   <si>
@@ -152,10 +149,29 @@
     <t>20181012 - 1221 -&gt; 1353</t>
   </si>
   <si>
-    <t>see ScanResult\zenmap\ECEIOTNetwork1.xml</t>
-  </si>
-  <si>
-    <t>20181012 - 1221 -&gt; 1436</t>
+    <t>20181012 - 1558 -&gt; 1701</t>
+  </si>
+  <si>
+    <t>see ScanResult\zenmap\ECEIOTNetwork2 (221).xml</t>
+  </si>
+  <si>
+    <t>UA Network(150.135.221.1 -&gt; 150.135.221.254)</t>
+  </si>
+  <si>
+    <t>see ScanResult\zenmap\ECEIOTNetwork1(.223).xml</t>
+  </si>
+  <si>
+    <t>see ScanResult\zenmap\ECEIOTNetwork(222).xml</t>
+  </si>
+  <si>
+    <t>Private nework 
+scanning</t>
+  </si>
+  <si>
+    <t>20181012 - 1556</t>
+  </si>
+  <si>
+    <t>see ECEIOT10121556</t>
   </si>
 </sst>
 </file>
@@ -510,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9AE1FB-5A0C-4E87-85F5-11B367FF5FB7}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -523,7 +539,7 @@
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" customWidth="1"/>
-    <col min="6" max="6" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -695,7 +711,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -704,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -712,19 +728,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>20181010</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -735,13 +751,16 @@
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -752,7 +771,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -762,6 +781,37 @@
       </c>
       <c r="F12" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274D90B-EDD4-4675-AA93-2A4C8D2C0087}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613FC5C4-8F56-4000-A1E1-064499B564A4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Attack Vector</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>see ECEIOT10121556</t>
+  </si>
+  <si>
+    <t>20181015 - 1155 -&gt; 1321</t>
+  </si>
+  <si>
+    <t>see ScanResult\zenmap\ECEIOTNetwork3 (220).xml</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -804,6 +810,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -812,6 +821,12 @@
       </c>
       <c r="D14" t="s">
         <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613FC5C4-8F56-4000-A1E1-064499B564A4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC7A60F-0B48-4E3A-8EA8-4131EB049A46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Attack Vector</t>
   </si>
@@ -178,6 +178,30 @@
   </si>
   <si>
     <t>see ScanResult\zenmap\ECEIOTNetwork3 (220).xml</t>
+  </si>
+  <si>
+    <t>golismero</t>
+  </si>
+  <si>
+    <t>see ScanResult\nmap\Connected_Device</t>
+  </si>
+  <si>
+    <t>connected device</t>
+  </si>
+  <si>
+    <t>20181016 - 1514</t>
+  </si>
+  <si>
+    <t>Vulnerability Analysis</t>
+  </si>
+  <si>
+    <t>wistorn neweb</t>
+  </si>
+  <si>
+    <t>20181016 - 1343 -&gt;1346</t>
+  </si>
+  <si>
+    <t>see ScanResult\golismero\wistronNeweb.html</t>
   </si>
 </sst>
 </file>
@@ -532,16 +556,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9AE1FB-5A0C-4E87-85F5-11B367FF5FB7}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" customWidth="1"/>
@@ -829,6 +853,46 @@
         <v>48</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC7A60F-0B48-4E3A-8EA8-4131EB049A46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0917A1E3-8EDE-45C6-9739-93F9721B959D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -195,13 +195,13 @@
     <t>Vulnerability Analysis</t>
   </si>
   <si>
-    <t>wistorn neweb</t>
-  </si>
-  <si>
-    <t>20181016 - 1343 -&gt;1346</t>
-  </si>
-  <si>
     <t>see ScanResult\golismero\wistronNeweb.html</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>20181016 - 1343 -&gt; 20181017 - 1245</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -861,16 +861,16 @@
         <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0917A1E3-8EDE-45C6-9739-93F9721B959D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB926052-A746-42B3-BA14-144C288119BB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -195,13 +195,13 @@
     <t>Vulnerability Analysis</t>
   </si>
   <si>
-    <t>see ScanResult\golismero\wistronNeweb.html</t>
-  </si>
-  <si>
     <t>devices</t>
   </si>
   <si>
     <t>20181016 - 1343 -&gt; 20181017 - 1245</t>
+  </si>
+  <si>
+    <t>see ScanResult\golismero</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -861,16 +861,16 @@
         <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>49</v>
       </c>
       <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
         <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB926052-A746-42B3-BA14-144C288119BB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8CCBDD-CD28-4867-91A7-C6CD8D8F41CF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>Attack Vector</t>
   </si>
@@ -202,6 +202,47 @@
   </si>
   <si>
     <t>see ScanResult\golismero</t>
+  </si>
+  <si>
+    <t>Monitor network</t>
+  </si>
+  <si>
+    <t>all network</t>
+  </si>
+  <si>
+    <t>airmon-ng
+airodump-ng</t>
+  </si>
+  <si>
+    <t>20181016 - 1419</t>
+  </si>
+  <si>
+    <t>Target ECEIoT -&gt; Channel 6</t>
+  </si>
+  <si>
+    <t>ECE IoT</t>
+  </si>
+  <si>
+    <t>All devices -&gt; see partial result Aircrack\airodump-ng-1</t>
+  </si>
+  <si>
+    <t>aireplay-ng -0 5 -a &lt;mac&gt; --ignore-negative mon0</t>
+  </si>
+  <si>
+    <t>deauthentication 
+attack</t>
+  </si>
+  <si>
+    <t>20181105 - 1423 - 1431</t>
+  </si>
+  <si>
+    <t>20181105 - 1545 - 1350</t>
+  </si>
+  <si>
+    <t>20181105 - 1432 - 1552</t>
+  </si>
+  <si>
+    <t>All devices</t>
   </si>
 </sst>
 </file>
@@ -237,11 +278,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -556,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9AE1FB-5A0C-4E87-85F5-11B367FF5FB7}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -567,9 +609,9 @@
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" customWidth="1"/>
-    <col min="6" max="6" width="43.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -893,6 +935,80 @@
         <v>50</v>
       </c>
     </row>
+    <row r="17" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8CCBDD-CD28-4867-91A7-C6CD8D8F41CF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C992E9-04E4-46B3-A1DA-646F17889E33}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>Attack Vector</t>
   </si>
@@ -243,6 +243,38 @@
   </si>
   <si>
     <t>All devices</t>
+  </si>
+  <si>
+    <t>Bash Scripting -&gt; 
+Monitor, 
+Deauthentication Attack</t>
+  </si>
+  <si>
+    <t>Most of Device</t>
+  </si>
+  <si>
+    <t>airmon-ng
+airodump-ng
+aireplay-ng</t>
+  </si>
+  <si>
+    <t>See Aircrack\autoattack.sh</t>
+  </si>
+  <si>
+    <t>20181105 - 20181108</t>
+  </si>
+  <si>
+    <t>ARP Spoof</t>
+  </si>
+  <si>
+    <t>dsniff
+arpspoof</t>
+  </si>
+  <si>
+    <t>20181108 -</t>
+  </si>
+  <si>
+    <t>Wemo</t>
   </si>
 </sst>
 </file>
@@ -598,16 +630,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9AE1FB-5A0C-4E87-85F5-11B367FF5FB7}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" customWidth="1"/>
@@ -1009,6 +1041,44 @@
         <v>67</v>
       </c>
     </row>
+    <row r="21" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C992E9-04E4-46B3-A1DA-646F17889E33}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C15B1EB-C599-410E-BE4B-A9EE011480F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Attack Vector</t>
   </si>
@@ -264,17 +264,16 @@
     <t>20181105 - 20181108</t>
   </si>
   <si>
-    <t>ARP Spoof</t>
-  </si>
-  <si>
-    <t>dsniff
-arpspoof</t>
-  </si>
-  <si>
-    <t>20181108 -</t>
-  </si>
-  <si>
-    <t>Wemo</t>
+    <t>aircrack-ng
+deauf attack</t>
+  </si>
+  <si>
+    <t>20181109 -&gt; 1304 - 1905</t>
+  </si>
+  <si>
+    <t>Limited the number of character in 9 words
+Better devices can creak in few days
+See Brute Force\BF20181109</t>
   </si>
 </sst>
 </file>
@@ -632,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9AE1FB-5A0C-4E87-85F5-11B367FF5FB7}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1061,23 +1060,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AttackLog.xlsx
+++ b/AttackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C15B1EB-C599-410E-BE4B-A9EE011480F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FF9C52-7836-4255-ABE6-9B67B3AE0B06}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{70F4404E-E2FF-4EFC-9AC6-3939F69F6572}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>Attack Vector</t>
   </si>
@@ -274,6 +274,15 @@
     <t>Limited the number of character in 9 words
 Better devices can creak in few days
 See Brute Force\BF20181109</t>
+  </si>
+  <si>
+    <t>Update GitHub</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>see https://github.com/dpw5314/PenTesting/</t>
   </si>
 </sst>
 </file>
@@ -629,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9AE1FB-5A0C-4E87-85F5-11B367FF5FB7}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1080,6 +1089,23 @@
         <v>77</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23">
+        <v>20181115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
